--- a/biology/Botanique/Isthmiaceae/Isthmiaceae.xlsx
+++ b/biology/Botanique/Isthmiaceae/Isthmiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Isthmiaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Hemiaulales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Isthmia, dérivé de isthme par C. Agardh qui décrivit ainsi le genre en 1832[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Isthmia, dérivé de isthme par C. Agardh qui décrivit ainsi le genre en 1832:
         « XV. Isthmia.Frustilla obliqua, isthmis cohoerentia.
 Ad hoc genus transitum facit Diatoma interstitiale etiam isthmis instructa, diversum tantummodo frustillis rectangulis. 
 Fabrica in hoc genere vere miranda. »
@@ -552,7 +566,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Isthmia présente des cellules rhomboïdales ou trapézoïdales en vue de ceinture (girdle view) et attachées par des coussinets mucilagineux formant des colonies ramifiées complexes.
 Les plastides sont discoïdes.
@@ -565,9 +581,9 @@
 Il n'y a pas d'ouvertures de rimoportules évidentes à extérieur, mais des rimoportules bulbeuses et légèrement aplaties à l'intérieur peuvent être trouvées regroupées sur les valves.
 Un grand pseudoseptum à rebord s'étend vers l'intérieur à partir du bord du manteau valvulaire (mantle) ; celui-ci est supporté par des entretoises issues de la surface de la valve.
 Les copules (copula) sont complètes, avec des aréoles et des cribles (cribrum) plus petits que sur la valve.
-L'intérieur de la valvocopule (valvocopula) forme un septum entretoisé qui s'accroche au pseudoseptum de la valve[2].
-Adolf Engler et Karl Anton Eugen Prantl  précisent que « Les coquilles sont côtelées (Eu-Isthmia), ou non côtelées (Isthmiella Gleve). Pétiolées avec un court coussin de gelée sur la bosse pointue. Les cellules sont solitaires, mais souvent superposées irrégulièrement, formant des arbres »[3].
-Note : le vocabulaire ci-dessus, spécifique aux diatomées (notamment les mots en italique), est explicité dans le glossaire anglophone cité en référence[4].
+L'intérieur de la valvocopule (valvocopula) forme un septum entretoisé qui s'accroche au pseudoseptum de la valve.
+Adolf Engler et Karl Anton Eugen Prantl  précisent que « Les coquilles sont côtelées (Eu-Isthmia), ou non côtelées (Isthmiella Gleve). Pétiolées avec un court coussin de gelée sur la bosse pointue. Les cellules sont solitaires, mais souvent superposées irrégulièrement, formant des arbres ».
+Note : le vocabulaire ci-dessus, spécifique aux diatomées (notamment les mots en italique), est explicité dans le glossaire anglophone cité en référence.
 </t>
         </is>
       </c>
@@ -596,10 +612,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isthmia est un organisme marin, épiphyte sur les macroalgues, par exemple sur les algues rouges (genres Ceramium, Polysiphonia, etc.)[2].
-Engler et Prantl identifient huit espèces d’Isthmia, marines et fossiles. Dont Isthmia enervis Ehrenb. (coquille sans côtes), forme la plus répandue dans l'Atlantique Nord et la Méditerranée ; Isthmia nervosa Kütz., coquille à côtes longitudinales, présente sur les côtes de la mer du Nord et de l'Atlantique Nord[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isthmia est un organisme marin, épiphyte sur les macroalgues, par exemple sur les algues rouges (genres Ceramium, Polysiphonia, etc.).
+Engler et Prantl identifient huit espèces d’Isthmia, marines et fossiles. Dont Isthmia enervis Ehrenb. (coquille sans côtes), forme la plus répandue dans l'Atlantique Nord et la Méditerranée ; Isthmia nervosa Kütz., coquille à côtes longitudinales, présente sur les côtes de la mer du Nord et de l'Atlantique Nord.
 </t>
         </is>
       </c>
@@ -628,9 +646,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 août 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 août 2022) :
 Isthmia C.Agardh, 1832
 Isthmiella Cleve, 1873</t>
         </is>
@@ -660,10 +680,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Isthmiaceae Schütt[2].
-La famille des Isthmiaceae est rarement reconnue, en particulier World Register of Marine Species                               (10 août 2022)[5] classe le genre Isthmia dans les Biddulphiaceae[6], et Isthmiella est considéré comme incertae sedis[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Isthmiaceae Schütt.
+La famille des Isthmiaceae est rarement reconnue, en particulier World Register of Marine Species                               (10 août 2022) classe le genre Isthmia dans les Biddulphiaceae, et Isthmiella est considéré comme incertae sedis.
 </t>
         </is>
       </c>
